--- a/Data/marriages_age.xlsx
+++ b/Data/marriages_age.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzelegesari/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzelegesari/Documents/GitHub/emu660-spring2025-Selenzel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CB0E71-F06B-B445-807E-2577E5848AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7775CFC5-79FA-1B4E-9D5B-F43010B36B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1600" windowWidth="27040" windowHeight="15740" xr2:uid="{2AF1DE22-354B-3540-BBAF-0085444BBC6E}"/>
+    <workbookView xWindow="1480" yWindow="820" windowWidth="27040" windowHeight="15740" xr2:uid="{2AF1DE22-354B-3540-BBAF-0085444BBC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Evlilik Yaşı" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>Average Marriage Age</t>
+    <t>Average_Marriage_Age</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
   <dimension ref="A1:D3937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
